--- a/微光驿站.xlsx
+++ b/微光驿站.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="9950" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="明细表" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="160">
   <si>
     <t>公共卫生间</t>
   </si>
   <si>
+    <t>toilet</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>暖心服务站</t>
   </si>
   <si>
+    <t>warm</t>
+  </si>
+  <si>
     <t>服务内容</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
     <t>中石化“爱心驿站”</t>
   </si>
   <si>
+    <t>sinopec</t>
+  </si>
+  <si>
     <t>是否收费及收费标准</t>
   </si>
   <si>
@@ -190,6 +199,9 @@
     <t>合作商户</t>
   </si>
   <si>
+    <t>partner</t>
+  </si>
+  <si>
     <t>老盛昌（宝安店）</t>
   </si>
   <si>
@@ -230,6 +242,9 @@
   </si>
   <si>
     <t>户外职工接力站</t>
+  </si>
+  <si>
+    <t>relay</t>
   </si>
   <si>
     <t>方泰文化分中心</t>
@@ -1419,8 +1434,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9041765" y="8039100"/>
-          <a:ext cx="2045335" cy="2203450"/>
+          <a:off x="8297545" y="8267700"/>
+          <a:ext cx="1893570" cy="2273300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1461,8 +1476,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9048750" y="6355715"/>
-          <a:ext cx="1524000" cy="1143635"/>
+          <a:off x="8304530" y="6520815"/>
+          <a:ext cx="1524000" cy="1188085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1503,8 +1518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12077700" y="6346825"/>
-          <a:ext cx="1028065" cy="1085215"/>
+          <a:off x="11105515" y="6511925"/>
+          <a:ext cx="932815" cy="1129665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1545,8 +1560,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10886440" y="4474210"/>
-          <a:ext cx="4886960" cy="1015365"/>
+          <a:off x="9990455" y="4594860"/>
+          <a:ext cx="4486910" cy="1053465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1587,8 +1602,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10858500" y="6366510"/>
-          <a:ext cx="1056640" cy="1122680"/>
+          <a:off x="9962515" y="6537960"/>
+          <a:ext cx="999490" cy="1160780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1629,8 +1644,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9277985" y="2228850"/>
-          <a:ext cx="1273175" cy="1184910"/>
+          <a:off x="8533765" y="2279650"/>
+          <a:ext cx="1273175" cy="1229360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1652,8 +1667,8 @@
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
@@ -1672,8 +1687,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9718040" y="9185275"/>
-          <a:ext cx="3636010" cy="2332990"/>
+          <a:off x="8924290" y="9807575"/>
+          <a:ext cx="3360420" cy="2377440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1941,38 +1956,41 @@
   <sheetPr/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="3" max="3" width="26.3727272727273" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="34.375" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="34.3727272727273" customWidth="1"/>
+    <col min="6" max="6" width="23.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:2">
+    <row r="1" ht="29" customHeight="1" spans="1:3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18"/>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1980,13 +1998,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1994,13 +2012,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2008,13 +2026,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2022,13 +2040,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2036,13 +2054,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2050,36 +2068,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="32" customHeight="1" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="1:3">
       <c r="A10" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="18"/>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2087,33 +2108,33 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:5">
       <c r="A13" s="7">
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2121,16 +2142,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2138,16 +2159,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2155,16 +2176,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2172,16 +2193,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2189,102 +2210,105 @@
         <v>7</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" ht="33" customHeight="1" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" ht="33" customHeight="1" spans="1:3">
       <c r="A20" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="18"/>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" ht="28" spans="1:6">
       <c r="A22" s="7">
         <v>1</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" ht="28" spans="1:6">
       <c r="A23" s="7">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" ht="27" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" ht="28" spans="1:6">
       <c r="A24" s="7">
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" ht="42" customHeight="1" spans="1:6">
@@ -2292,42 +2316,45 @@
         <v>4</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B27" s="18"/>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2335,33 +2362,33 @@
         <v>1</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="28" spans="1:5">
       <c r="A30" s="7">
         <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2369,16 +2396,16 @@
         <v>3</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2386,16 +2413,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2416,78 +2443,81 @@
       <c r="D34" s="9"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" s="20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" s="20"/>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" ht="27" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" ht="28" spans="1:5">
       <c r="A38" s="7">
         <v>1</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" ht="28" spans="1:5">
       <c r="A39" s="7">
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" ht="28" spans="1:5">
       <c r="A40" s="7">
         <v>3</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" ht="33" customHeight="1" spans="1:5">
@@ -2495,33 +2525,33 @@
         <v>4</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" ht="27" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" ht="28" spans="1:5">
       <c r="A42" s="7">
         <v>5</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2558,38 +2588,38 @@
   <sheetPr/>
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.8727272727273" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="3" max="3" width="34.2545454545455" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="34.375" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="34.3727272727273" customWidth="1"/>
+    <col min="6" max="6" width="23.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -2598,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -2655,22 +2685,22 @@
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -2679,28 +2709,28 @@
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" ht="27" spans="1:5">
+    <row r="15" ht="28" spans="1:5">
       <c r="A15" s="7">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -2709,13 +2739,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -2724,13 +2754,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -2739,13 +2769,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E18" s="11"/>
     </row>
@@ -2754,13 +2784,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E19" s="11"/>
     </row>
@@ -2769,52 +2799,52 @@
         <v>7</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:5">
       <c r="A21" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" ht="28" spans="1:5">
       <c r="A22" s="7">
         <v>1</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" ht="27" spans="1:5">
+    <row r="23" ht="42" spans="1:5">
       <c r="A23" s="7">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -2823,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="12">
@@ -2836,11 +2866,11 @@
         <v>4</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E25" s="11"/>
     </row>
@@ -2849,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="12">
@@ -2862,11 +2892,11 @@
         <v>6</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E27" s="11"/>
     </row>
@@ -2875,7 +2905,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="12">
@@ -2888,7 +2918,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="7">
@@ -2898,22 +2928,22 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E32" s="7"/>
     </row>
@@ -2922,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -3014,25 +3044,25 @@
     </row>
     <row r="47" ht="23" customHeight="1" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" ht="80" customHeight="1" spans="1:5">
@@ -3040,16 +3070,16 @@
         <v>1</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3160,257 +3190,257 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="20.6272727272727" customWidth="1"/>
+    <col min="2" max="2" width="28.7545454545455" customWidth="1"/>
+    <col min="3" max="3" width="26.3727272727273" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:3">
+    <row r="1" ht="23" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" ht="103" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" ht="67.5" spans="1:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" ht="70" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" ht="28" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:4">
       <c r="A7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:4">
+    </row>
+    <row r="11" ht="28" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" ht="27" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" ht="27" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" ht="28" spans="1:4">
       <c r="A16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" ht="27" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" ht="28" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" ht="27" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" ht="28" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
